--- a/xlsx/occupation_specifier_list.xlsx
+++ b/xlsx/occupation_specifier_list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>m</t>
   </si>
@@ -114,6 +114,27 @@
   </si>
   <si>
     <t>officer</t>
+  </si>
+  <si>
+    <t>agt</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>atndt</t>
+  </si>
+  <si>
+    <t>attendent</t>
+  </si>
+  <si>
+    <t>asst</t>
+  </si>
+  <si>
+    <t>assistant</t>
+  </si>
+  <si>
+    <t>mngr</t>
   </si>
 </sst>
 </file>
@@ -489,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,143 +523,183 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:B17">
-    <sortCondition ref="B1"/>
+  <sortState ref="A1:B22">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
